--- a/src/test/resources/test-export-reveal.xlsx
+++ b/src/test/resources/test-export-reveal.xlsx
@@ -393,7 +393,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="E129" sheet="true" scenarios="true" objects="true" insertRows="false" selectLockedCells="false" selectUnlockedCells="false"/>
+  <sheetProtection password="82C4" sheet="true" scenarios="true" objects="true" insertRows="false" selectLockedCells="false" selectUnlockedCells="false"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>